--- a/zakat_system/zakat_data.xlsx
+++ b/zakat_system/zakat_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D232"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3670,7 +3670,9 @@
       <c r="D231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr"/>
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>أحمد</t>
@@ -3680,6 +3682,38 @@
         <v>1000</v>
       </c>
       <c r="D232" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr"/>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>أحمد</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr"/>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>أحمد</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D234" t="inlineStr">
         <is>
           <t>2024-09-03</t>
         </is>
